--- a/src/test/resources/multi-style In cell.xlsx
+++ b/src/test/resources/multi-style In cell.xlsx
@@ -16,9 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ab</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <r>
+      <t>ab</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -41,12 +43,384 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IM8zc</t>
+  </si>
+  <si>
+    <t>B6tw</t>
+  </si>
+  <si>
+    <t>nxWnqE</t>
+  </si>
+  <si>
+    <t>RyyJ8o</t>
+  </si>
+  <si>
+    <t>UgkTgnx</t>
+  </si>
+  <si>
+    <t>JDrYdU</t>
+  </si>
+  <si>
+    <t>Bl7Lh</t>
+  </si>
+  <si>
+    <t>w2vc9</t>
+  </si>
+  <si>
+    <t>LUYhEG</t>
+  </si>
+  <si>
+    <t>y1Ee5Sl</t>
+  </si>
+  <si>
+    <t>tMMWp</t>
+  </si>
+  <si>
+    <t>P1coCD</t>
+  </si>
+  <si>
+    <t>z2aLkN8</t>
+  </si>
+  <si>
+    <t>ljjaD8</t>
+  </si>
+  <si>
+    <r>
+      <t>r6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T1hE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qu5iO</t>
+  </si>
+  <si>
+    <t>TJt8C</t>
+  </si>
+  <si>
+    <t>sJlIYKN</t>
+  </si>
+  <si>
+    <t>S7Pf8hG</t>
+  </si>
+  <si>
+    <t>bHXsj49</t>
+  </si>
+  <si>
+    <t>EqXOeS</t>
+  </si>
+  <si>
+    <t>exyeBe</t>
+  </si>
+  <si>
+    <t>FtKjhf</t>
+  </si>
+  <si>
+    <t>KVs8LWt</t>
+  </si>
+  <si>
+    <t>uEkSmmj</t>
+  </si>
+  <si>
+    <t>1DxEoJ</t>
+  </si>
+  <si>
+    <t>tP3d</t>
+  </si>
+  <si>
+    <t>Nb2fu</t>
+  </si>
+  <si>
+    <t>nPJ6</t>
+  </si>
+  <si>
+    <t>2CrTk17</t>
+  </si>
+  <si>
+    <t>JWbwVD</t>
+  </si>
+  <si>
+    <t>aaX7p</t>
+  </si>
+  <si>
+    <t>NkFL</t>
+  </si>
+  <si>
+    <t>9j0xsxt</t>
+  </si>
+  <si>
+    <t>6rcGpax</t>
+  </si>
+  <si>
+    <t>h0blSId</t>
+  </si>
+  <si>
+    <t>gCPR</t>
+  </si>
+  <si>
+    <t>JO1rz</t>
+  </si>
+  <si>
+    <t>iEct</t>
+  </si>
+  <si>
+    <t>Tfuq</t>
+  </si>
+  <si>
+    <t>cHv9n3Y</t>
+  </si>
+  <si>
+    <t>TX9dhf</t>
+  </si>
+  <si>
+    <t>1Ueoj7</t>
+  </si>
+  <si>
+    <t>1EY9V</t>
+  </si>
+  <si>
+    <t>0ruA</t>
+  </si>
+  <si>
+    <t>XCXhJRp</t>
+  </si>
+  <si>
+    <t>uD36</t>
+  </si>
+  <si>
+    <t>Iat3fJE</t>
+  </si>
+  <si>
+    <t>1YsnAY</t>
+  </si>
+  <si>
+    <t>yrN9e</t>
+  </si>
+  <si>
+    <t>sSIM7G</t>
+  </si>
+  <si>
+    <t>gDXE</t>
+  </si>
+  <si>
+    <t>uamheu</t>
+  </si>
+  <si>
+    <t>ZXMN</t>
+  </si>
+  <si>
+    <t>8MymZBX</t>
+  </si>
+  <si>
+    <t>ic9aLbJ</t>
+  </si>
+  <si>
+    <t>e1QuI</t>
+  </si>
+  <si>
+    <t>bEQYyk</t>
+  </si>
+  <si>
+    <t>NRjW2</t>
+  </si>
+  <si>
+    <t>vz9HLE</t>
+  </si>
+  <si>
+    <t>aBYIMi</t>
+  </si>
+  <si>
+    <t>7Xe2lQz</t>
+  </si>
+  <si>
+    <t>d95SDS</t>
+  </si>
+  <si>
+    <t>jUfZ</t>
+  </si>
+  <si>
+    <t>ODrB2</t>
+  </si>
+  <si>
+    <t>fTY56z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JWG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v25V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4xbrwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fyM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ej2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vXbZ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7bVW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fk</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DKbi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0k</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ZEpB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A8RN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6Dn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aUkcla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lt9NMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1BwJHPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPpB77c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,19 +444,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +524,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3"/>
+  <dimension ref="B3:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,9 +843,404 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="14.25">
+    <row r="3" spans="2:3" ht="14.25">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15">
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="14.25">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="14.25">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" ht="15">
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" ht="14.25">
+      <c r="C53" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/multi-style In cell.xlsx
+++ b/src/test/resources/multi-style In cell.xlsx
@@ -1257,7 +1257,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData> </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/test/resources/multi-style In cell.xlsx
+++ b/src/test/resources/multi-style In cell.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -34,7 +34,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -100,7 +100,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -271,7 +271,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -302,7 +302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -345,7 +345,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -356,7 +356,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -382,7 +382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -419,19 +419,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -445,14 +445,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,7 +464,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -472,7 +472,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -546,11 +546,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,9 +632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,82 +843,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="14.25">
-      <c r="B3" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="3:3">
       <c r="C7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="3:3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="3:3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15">
+    <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -938,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="14.25">
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
         <v>70</v>
       </c>
@@ -958,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="14.25">
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -983,7 +995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="15">
+    <row r="31" spans="3:3">
       <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="14.25">
+    <row r="53" spans="3:3">
       <c r="C53" s="4" t="s">
         <v>73</v>
       </c>
@@ -1251,13 +1263,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData> </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1265,12 +1277,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
